--- a/Assets/外部修改檔案/Exam04.xlsx
+++ b/Assets/外部修改檔案/Exam04.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UPUP\Desktop\Projects\VR_Long-term Care\Assets\外部修改檔案\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UPUP\Desktop\Projects\VR_Long-term_Care\Assets\外部修改檔案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2396FC7F-411C-4A70-837A-B8E1162B6477}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAFB097-91BB-45DB-8DAF-FC8E8A148520}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>醫療教案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,69 +47,274 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未核對病人身分</t>
-  </si>
-  <si>
-    <t>檢查前後未做洗手動作</t>
-  </si>
-  <si>
-    <t>未完成視診病人皮膚病徵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未按照順序觸診病人淋巴結處</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未觸診按壓病人皮膚腫塊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成測量病人腫塊/斑塊大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未正確紀錄護理檢查資訊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未在時限內完成檢測</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作前後洗手(X2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核對病患身份(X2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>視診病人皮膚病徵(X2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照順序觸診病人淋巴結處(X18)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>觸診按壓病人皮膚腫塊(X1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成測量病人腫塊/斑塊大小(X2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正確紀錄護理檢查資訊(X5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>時限內完成檢測(X1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>備餐、餵食及協助用藥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向案主說明為其準備餐食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清洗食材及器皿</t>
+  </si>
+  <si>
+    <t>詢問案主之烹調習慣(喜好)   </t>
+  </si>
+  <si>
+    <t>調味符合低鹽之原則</t>
+  </si>
+  <si>
+    <t>以其他餐具試嚐味道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>協助案主圍上圍兜</t>
+  </si>
+  <si>
+    <t>注意避免案主嗆到食物</t>
+  </si>
+  <si>
+    <t>餵食後，協助案主清潔口腔</t>
+  </si>
+  <si>
+    <t>飯後避免立刻平躺（口述）</t>
+  </si>
+  <si>
+    <t>正確備藥</t>
+  </si>
+  <si>
+    <t>用藥時間正確</t>
+  </si>
+  <si>
+    <t>確認藥物的安全性</t>
+  </si>
+  <si>
+    <t>開水加入小藥杯內溶解藥粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灌藥前，先確定鼻胃管遠端在胃中（須有反抽動作）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依序烹煮食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切碎，黏稠狀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置於碗或盤中，並符合案主的食量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試食物溫度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以正確的服藥溶液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藥丸磨粉，倒入小藥杯，確認無藥物殘留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必要時反摺鼻胃管，避免空氣灌入胃部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物製備過程中，不得用圍裙、抹布擦手，或習慣性抓頭、摸臉等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可用抹布擦餐具， 保持餐具及廚具之乾淨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水龍頭位使用時持續性流水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>製備過程注意安全原則及熟練流暢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時限內操作完畢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹煮後爐火關閉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗淨雙手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餵食，並口述餵食之互 動語言（將餵食後的粥置於另一空碗中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未說明備餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未洗手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未清洗食材器皿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未詢問烹煮習慣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未符合低鹽標準</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未依序烹煮食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未切碎或正確烹調米粥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未嘗試味道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未符合案主食量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未協助案主圍上圍兜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未測試食物溫度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未正確餵食或互動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案主嗆到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未清潔口腔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未提醒避免平躺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未正確備藥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錯誤時間用藥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未確認藥物安全性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未正確使用液體</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未確認無藥物殘留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藥粉未溶解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未進行反抽動作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未正確清潔用藥設備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灌藥後，依重力原理將開水流入胃內，直到藥杯、灌食器及鼻胃管中沒有殘留的藥物為止後，再給水至少30cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空氣進入患者胃部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動作未符合正確習慣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可用手直接觸摸已煮熟之食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以手觸摸煮熟食材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胃保持餐具乾淨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未注意水流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未注意安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未於時限內操作完畢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未注意爐火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丟入垃圾筒</t>
+  </si>
+  <si>
+    <t>洗淨並歸位</t>
+  </si>
+  <si>
+    <t>清理水槽</t>
+  </si>
+  <si>
+    <t>擦拭桌面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未將殘餘物丟入垃圾桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未洗淨歸位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未清理水槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未擦拭桌面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -217,6 +422,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -229,7 +465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -245,8 +481,47 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -530,19 +805,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.73046875" customWidth="1"/>
-    <col min="2" max="2" width="34.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.59765625" customWidth="1"/>
-    <col min="4" max="4" width="32.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.59765625" customWidth="1"/>
+    <col min="2" max="2" width="63.53125" customWidth="1"/>
+    <col min="3" max="3" width="30.46484375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.46484375" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.59765625" customWidth="1"/>
     <col min="7" max="7" width="20.59765625" customWidth="1"/>
     <col min="8" max="8" width="24.59765625" customWidth="1"/>
     <col min="9" max="9" width="18.59765625" customWidth="1"/>
@@ -557,163 +833,550 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="17"/>
+      <c r="B4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="17"/>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="17"/>
+      <c r="B6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="17"/>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="17"/>
+      <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="17"/>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="17"/>
+      <c r="B10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="17"/>
+      <c r="B11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="17"/>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="17"/>
+      <c r="B13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="12">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="17"/>
+      <c r="B14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="12">
+        <v>5</v>
+      </c>
+      <c r="E14" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="18"/>
+      <c r="B15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="12">
+        <v>3</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="18"/>
+      <c r="B16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="18"/>
+      <c r="B17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="18"/>
+      <c r="B18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="18"/>
+      <c r="B19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="11">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
+    </row>
+    <row r="20" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="18"/>
+      <c r="B20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="18"/>
+      <c r="B21" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="18"/>
+      <c r="B22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="12">
+        <v>2</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="18"/>
+      <c r="B23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="12">
+        <v>3</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="18"/>
+      <c r="B24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="12">
+        <v>2</v>
+      </c>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="18"/>
+      <c r="B25" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="18"/>
+      <c r="B26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="12">
+        <v>7</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="18"/>
+      <c r="B27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="12">
+        <v>7</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="18"/>
+      <c r="B28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="12">
+        <v>7</v>
+      </c>
+      <c r="E28" s="11">
         <v>4</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="5"/>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="29" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="18"/>
+      <c r="B29" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="12">
+        <v>7</v>
+      </c>
+      <c r="E29" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="18"/>
+      <c r="B30" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="12">
         <v>5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E30" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="18"/>
+      <c r="B31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="12">
         <v>4</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="5"/>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="5"/>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="E31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="18"/>
+      <c r="B32" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="12">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="18"/>
+      <c r="B33" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="12">
+        <v>3</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="18"/>
+      <c r="B34" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="12">
+        <v>2</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="18"/>
+      <c r="B35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="6">
         <v>9</v>
       </c>
-      <c r="D7" s="2">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9">
+      <c r="E35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="18"/>
+      <c r="B36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="5"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
+      <c r="E36" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="18"/>
+      <c r="B37" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="6">
+        <v>100</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="A3:A37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/外部修改檔案/Exam04.xlsx
+++ b/Assets/外部修改檔案/Exam04.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UPUP\Desktop\Projects\VR_Long-term_Care\Assets\外部修改檔案\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UPUP\Desktop\Projects\VR_Long-Term_Care_Focus\Assets\外部修改檔案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAFB097-91BB-45DB-8DAF-FC8E8A148520}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2CAA87-72D8-48D0-BB29-1D6F1C724407}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,32 +289,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>洗淨並歸位</t>
+  </si>
+  <si>
+    <t>清理水槽</t>
+  </si>
+  <si>
+    <t>擦拭桌面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未將殘餘物丟入垃圾桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未洗淨歸位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未清理水槽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未擦拭桌面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>丟入垃圾筒</t>
-  </si>
-  <si>
-    <t>洗淨並歸位</t>
-  </si>
-  <si>
-    <t>清理水槽</t>
-  </si>
-  <si>
-    <t>擦拭桌面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未將殘餘物丟入垃圾桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未洗淨歸位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未清理水槽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未擦拭桌面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,44 +476,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -807,15 +808,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.73046875" customWidth="1"/>
     <col min="2" max="2" width="63.53125" customWidth="1"/>
-    <col min="3" max="3" width="30.46484375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.46484375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.46484375" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.59765625" customWidth="1"/>
@@ -827,22 +828,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="4"/>
-      <c r="B2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -850,91 +851,91 @@
       <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="17"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="17"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="17"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="17"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="17"/>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>3</v>
       </c>
     </row>
@@ -943,433 +944,433 @@
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="17"/>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="17"/>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="12">
-        <v>2</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="E11" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="17"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="12">
-        <v>2</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="D12" s="10">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="17"/>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <v>3</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="17"/>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>5</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="18"/>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <v>3</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="18"/>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="12">
-        <v>2</v>
-      </c>
-      <c r="E16" s="11">
+      <c r="D16" s="10">
+        <v>2</v>
+      </c>
+      <c r="E16" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="18"/>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="12">
-        <v>2</v>
-      </c>
-      <c r="E17" s="11">
+      <c r="D17" s="10">
+        <v>2</v>
+      </c>
+      <c r="E17" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="18"/>
-      <c r="B18" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E18" s="11">
+      <c r="B18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="18"/>
-      <c r="B19" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="12">
+      <c r="B19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="10">
         <v>0.5</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="18"/>
-      <c r="B20" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="11">
+      <c r="B20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="18"/>
-      <c r="B21" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="11">
+      <c r="B21" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="18"/>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="12">
-        <v>2</v>
-      </c>
-      <c r="E22" s="11">
+      <c r="D22" s="10">
+        <v>2</v>
+      </c>
+      <c r="E22" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="18"/>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="10">
         <v>3</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="18"/>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="12">
-        <v>2</v>
-      </c>
-      <c r="E24" s="11">
+      <c r="D24" s="10">
+        <v>2</v>
+      </c>
+      <c r="E24" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="18"/>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="12">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11">
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="18"/>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="10">
         <v>7</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="18"/>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="10">
         <v>7</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="18"/>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="10">
         <v>7</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="18"/>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="10">
         <v>7</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="18"/>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="10">
         <v>5</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="18"/>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="10">
         <v>4</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="18"/>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="10">
         <v>3</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="18"/>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="10">
         <v>3</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="18"/>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="12">
-        <v>2</v>
-      </c>
-      <c r="E34" s="11">
+      <c r="D34" s="10">
+        <v>2</v>
+      </c>
+      <c r="E34" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="18"/>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="4">
         <v>9</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="18"/>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="4">
         <v>5</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="18"/>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="4">
         <v>100</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="13">
         <v>0</v>
       </c>
     </row>

--- a/Assets/外部修改檔案/Exam04.xlsx
+++ b/Assets/外部修改檔案/Exam04.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UPUP\Desktop\Projects\VR_Long-Term_Care_Focus\Assets\外部修改檔案\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manofmoutain\Desktop\Projects\VR_Long-term_Care\Assets\外部修改檔案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2CAA87-72D8-48D0-BB29-1D6F1C724407}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467E6851-1466-47FF-AA2A-333DF3F607F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
   <si>
     <t>醫療教案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,6 +316,10 @@
   </si>
   <si>
     <t>丟入垃圾筒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>語音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -806,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -827,7 +831,7 @@
     <col min="12" max="16" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -838,7 +842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="15"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -847,7 +851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
@@ -863,8 +867,14 @@
       <c r="E3" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="17"/>
       <c r="B4" s="9" t="s">
         <v>33</v>
@@ -878,8 +888,11 @@
       <c r="E4" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="17"/>
       <c r="B5" s="9" t="s">
         <v>7</v>
@@ -888,13 +901,16 @@
         <v>37</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="E5" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="17"/>
       <c r="B6" s="9" t="s">
         <v>8</v>
@@ -908,8 +924,14 @@
       <c r="E6" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="17"/>
       <c r="B7" s="9" t="s">
         <v>9</v>
@@ -923,8 +945,11 @@
       <c r="E7" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="17"/>
       <c r="B8" s="9" t="s">
         <v>20</v>
@@ -936,10 +961,13 @@
         <v>3</v>
       </c>
       <c r="E8" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="17"/>
       <c r="B9" s="1" t="s">
         <v>21</v>
@@ -948,13 +976,16 @@
         <v>41</v>
       </c>
       <c r="D9" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="17"/>
       <c r="B10" s="9" t="s">
         <v>10</v>
@@ -968,8 +999,11 @@
       <c r="E10" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="17"/>
       <c r="B11" s="9" t="s">
         <v>22</v>
@@ -983,8 +1017,11 @@
       <c r="E11" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="17"/>
       <c r="B12" s="9" t="s">
         <v>11</v>
@@ -998,8 +1035,11 @@
       <c r="E12" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="17"/>
       <c r="B13" s="9" t="s">
         <v>23</v>
@@ -1013,8 +1053,11 @@
       <c r="E13" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="17"/>
       <c r="B14" s="9" t="s">
         <v>34</v>
@@ -1026,10 +1069,16 @@
         <v>5</v>
       </c>
       <c r="E14" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="18"/>
       <c r="B15" s="9" t="s">
         <v>12</v>
@@ -1043,8 +1092,11 @@
       <c r="E15" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="18"/>
       <c r="B16" s="9" t="s">
         <v>13</v>
@@ -1058,8 +1110,11 @@
       <c r="E16" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="18"/>
       <c r="B17" s="9" t="s">
         <v>14</v>
@@ -1073,8 +1128,14 @@
       <c r="E17" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="18"/>
       <c r="B18" s="9" t="s">
         <v>75</v>
@@ -1088,8 +1149,11 @@
       <c r="E18" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="18"/>
       <c r="B19" s="9" t="s">
         <v>68</v>
@@ -1098,13 +1162,16 @@
         <v>72</v>
       </c>
       <c r="D19" s="10">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E19" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="18"/>
       <c r="B20" s="9" t="s">
         <v>69</v>
@@ -1118,8 +1185,11 @@
       <c r="E20" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="18"/>
       <c r="B21" s="9" t="s">
         <v>70</v>
@@ -1133,8 +1203,11 @@
       <c r="E21" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="18"/>
       <c r="B22" s="9" t="s">
         <v>15</v>
@@ -1148,8 +1221,11 @@
       <c r="E22" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="18"/>
       <c r="B23" s="9" t="s">
         <v>16</v>
@@ -1163,8 +1239,11 @@
       <c r="E23" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="18"/>
       <c r="B24" s="9" t="s">
         <v>17</v>
@@ -1178,8 +1257,11 @@
       <c r="E24" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="18"/>
       <c r="B25" s="9" t="s">
         <v>24</v>
@@ -1193,8 +1275,11 @@
       <c r="E25" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="18"/>
       <c r="B26" s="9" t="s">
         <v>25</v>
@@ -1208,8 +1293,11 @@
       <c r="E26" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="18"/>
       <c r="B27" s="9" t="s">
         <v>18</v>
@@ -1223,8 +1311,11 @@
       <c r="E27" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="18"/>
       <c r="B28" s="12" t="s">
         <v>19</v>
@@ -1233,13 +1324,16 @@
         <v>56</v>
       </c>
       <c r="D28" s="10">
-        <v>7</v>
+        <v>0.2</v>
       </c>
       <c r="E28" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="18"/>
       <c r="B29" s="12" t="s">
         <v>58</v>
@@ -1253,8 +1347,11 @@
       <c r="E29" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="18"/>
       <c r="B30" s="9" t="s">
         <v>26</v>
@@ -1268,8 +1365,11 @@
       <c r="E30" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="18"/>
       <c r="B31" s="9" t="s">
         <v>27</v>
@@ -1283,8 +1383,11 @@
       <c r="E31" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="18"/>
       <c r="B32" s="9" t="s">
         <v>61</v>
@@ -1298,8 +1401,11 @@
       <c r="E32" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="18"/>
       <c r="B33" s="9" t="s">
         <v>28</v>
@@ -1313,8 +1419,11 @@
       <c r="E33" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="18"/>
       <c r="B34" s="9" t="s">
         <v>29</v>
@@ -1328,8 +1437,11 @@
       <c r="E34" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="18"/>
       <c r="B35" s="9" t="s">
         <v>30</v>
@@ -1343,8 +1455,11 @@
       <c r="E35" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="18"/>
       <c r="B36" s="9" t="s">
         <v>31</v>
@@ -1358,8 +1473,11 @@
       <c r="E36" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F36">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="18"/>
       <c r="B37" s="9" t="s">
         <v>32</v>
@@ -1372,6 +1490,9 @@
       </c>
       <c r="E37" s="13">
         <v>0</v>
+      </c>
+      <c r="F37">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/外部修改檔案/Exam04.xlsx
+++ b/Assets/外部修改檔案/Exam04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manofmoutain\Desktop\Projects\VR_Long-term_Care\Assets\外部修改檔案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467E6851-1466-47FF-AA2A-333DF3F607F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BB55B7-D1AA-4DE0-98DF-AB42C30420EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -813,7 +813,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -901,10 +901,10 @@
         <v>37</v>
       </c>
       <c r="D5" s="2">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="E5" s="9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -976,10 +976,10 @@
         <v>41</v>
       </c>
       <c r="D9" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>6</v>

--- a/Assets/外部修改檔案/Exam04.xlsx
+++ b/Assets/外部修改檔案/Exam04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manofmoutain\Desktop\Projects\VR_Long-term_Care\Assets\外部修改檔案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BB55B7-D1AA-4DE0-98DF-AB42C30420EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D395AE-649F-4E51-B5AF-FC07EDE2E94C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -961,7 +961,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -1015,7 +1015,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>8</v>

--- a/Assets/外部修改檔案/Exam04.xlsx
+++ b/Assets/外部修改檔案/Exam04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manofmoutain\Desktop\Projects\VR_Long-term_Care\Assets\外部修改檔案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D395AE-649F-4E51-B5AF-FC07EDE2E94C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942B80D9-D31F-4DCD-9DD4-6F1326C5932B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -997,7 +997,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>7</v>
@@ -1069,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>11</v>

--- a/Assets/外部修改檔案/Exam04.xlsx
+++ b/Assets/外部修改檔案/Exam04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manofmoutain\Desktop\Projects\VR_Long-term_Care\Assets\外部修改檔案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942B80D9-D31F-4DCD-9DD4-6F1326C5932B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92FFEC9-8E09-40AE-ADE6-3D08AF9BB965}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -813,7 +813,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -1015,7 +1015,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>8</v>

--- a/Assets/外部修改檔案/Exam04.xlsx
+++ b/Assets/外部修改檔案/Exam04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manofmoutain\Desktop\Projects\VR_Long-term_Care\Assets\外部修改檔案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92FFEC9-8E09-40AE-ADE6-3D08AF9BB965}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814A51CA-69D4-4B23-B4E1-92F029AAFC3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -997,7 +997,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>7</v>
@@ -1165,7 +1165,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>16</v>

--- a/Assets/外部修改檔案/Exam04.xlsx
+++ b/Assets/外部修改檔案/Exam04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manofmoutain\Desktop\Projects\VR_Long-term_Care\Assets\外部修改檔案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814A51CA-69D4-4B23-B4E1-92F029AAFC3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E1DEA6-0035-4226-84EA-0AC186B669F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <t>醫療教案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,6 +316,10 @@
   </si>
   <si>
     <t>丟入垃圾筒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>語音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -812,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -1242,6 +1246,9 @@
       <c r="F23">
         <v>20</v>
       </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="18"/>
@@ -1260,6 +1267,9 @@
       <c r="F24">
         <v>21</v>
       </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="27.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="18"/>
@@ -1291,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="E26" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>23</v>
@@ -1324,10 +1334,10 @@
         <v>56</v>
       </c>
       <c r="D28" s="10">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="E28" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>25</v>

--- a/Assets/外部修改檔案/Exam04.xlsx
+++ b/Assets/外部修改檔案/Exam04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manofmoutain\Desktop\Projects\VR_Long-term_Care\Assets\外部修改檔案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E1DEA6-0035-4226-84EA-0AC186B669F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBED0221-69C9-463B-8D83-93992495F942}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -817,7 +817,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -1337,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>25</v>
@@ -1355,7 +1355,7 @@
         <v>7</v>
       </c>
       <c r="E29" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>26</v>
